--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>562637.9062681221</v>
+        <v>485412.1022136133</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11197211.69550665</v>
+        <v>10715557.17495381</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11823942.79648952</v>
+        <v>11299682.22588854</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7350749.762738644</v>
+        <v>7636515.576549068</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>86.08837011107096</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>232.2791855053265</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>263.7138800015061</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>127.4695742187183</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>29.53568454977897</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>18.28710074853456</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>98.43437416007339</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U13" t="n">
-        <v>263.7138800015061</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>263.7138800015061</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>363.0751705719298</v>
+        <v>10.45586299984536</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7303505775365</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H15" t="n">
-        <v>96.65565115906497</v>
+        <v>64.0432591318979</v>
       </c>
       <c r="I15" t="n">
-        <v>33.85559031833735</v>
+        <v>26.17372043046394</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>149.0434470605267</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.6385546828073</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>222.1670476323163</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U16" t="n">
-        <v>286.245260737819</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.688938697876389</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>5.682687573046505</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>286.0400390200421</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0755690505703</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>358.0486162120699</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>103.5658379945804</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>19.33566965901679</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T18" t="n">
-        <v>192.8838905608747</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8225435913021</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.4750609523323</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2364268653085</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>78.65641950666438</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>34.99158283600147</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>50.02980741086305</v>
       </c>
       <c r="E20" t="n">
-        <v>107.2978706236582</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9266892993078</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.0883708680829</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0755690505703</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.5371721201857</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>94.7899539525454</v>
+        <v>88.14919951609743</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8225435913021</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>132.3900059822814</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4766003534494</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.7629664447198</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.4750609523323</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>79.90509256201368</v>
+        <v>102.3463937053013</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>234.5292025906613</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>72.01333343396034</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H24" t="n">
-        <v>92.83156789269742</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I24" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705128</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>87.96525410924329</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>67.80911286544398</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.95228239867363</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>146.9246168288995</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I27" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>120.3332554667402</v>
+        <v>79.41653965146601</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
         <v>286.2271541212006</v>
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>317.430437072142</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.045250128462</v>
+        <v>245.3924319518751</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,7 +2888,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H30" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269654</v>
       </c>
       <c r="I30" t="n">
         <v>20.22295923705012</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.3387326418232</v>
+        <v>103.3387326418233</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>215.7750992511831</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.547702772954</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>54.72594858344443</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>32.47207459027693</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>125.2942148585658</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
         <v>206.6581849802338</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>141.1811940435987</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>191.8101937069112</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.22295923705128</v>
+        <v>20.22295923705085</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>156.7375515469679</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2271541212006</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.781160222249364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>103.6605607427262</v>
+        <v>206.8582527646978</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
         <v>206.6581849802338</v>
@@ -3562,16 +3562,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>82.42281819632542</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>220.7486959972119</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.781160222249364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>146.9246168288997</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>207.4198084453005</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H42" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269654</v>
       </c>
       <c r="I42" t="n">
         <v>20.22295923705012</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>198.6076632291042</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2271541212006</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>44.94697234296616</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.547702772954</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>64.62356519510791</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>146.9246168288995</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>192.0665623188214</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8092030868077</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
-        <v>269.7300168710045</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>136.8917226135564</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.09711040012049</v>
+        <v>770.5974120852552</v>
       </c>
       <c r="C11" t="n">
-        <v>21.09711040012049</v>
+        <v>401.6348951448435</v>
       </c>
       <c r="D11" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E11" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F11" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G11" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H11" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I11" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J11" t="n">
-        <v>49.28269087917602</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K11" t="n">
-        <v>142.2640879052543</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L11" t="n">
-        <v>294.5174947515907</v>
+        <v>669.5878927711868</v>
       </c>
       <c r="M11" t="n">
-        <v>495.5981834030606</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N11" t="n">
-        <v>704.5463761991318</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O11" t="n">
-        <v>888.5149683358416</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P11" t="n">
-        <v>1011.026904601763</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q11" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R11" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S11" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T11" t="n">
-        <v>1054.855520006025</v>
+        <v>2081.50187729751</v>
       </c>
       <c r="U11" t="n">
-        <v>1054.855520006025</v>
+        <v>1827.89471296002</v>
       </c>
       <c r="V11" t="n">
-        <v>1054.855520006025</v>
+        <v>1496.831825616449</v>
       </c>
       <c r="W11" t="n">
-        <v>820.2300801016544</v>
+        <v>1144.063170346335</v>
       </c>
       <c r="X11" t="n">
-        <v>553.8524235344764</v>
+        <v>770.5974120852552</v>
       </c>
       <c r="Y11" t="n">
-        <v>287.4747669672984</v>
+        <v>770.5974120852552</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>149.8542560755936</v>
+        <v>533.4666540631119</v>
       </c>
       <c r="C12" t="n">
-        <v>149.8542560755936</v>
+        <v>359.013624781985</v>
       </c>
       <c r="D12" t="n">
-        <v>149.8542560755936</v>
+        <v>210.0792151207337</v>
       </c>
       <c r="E12" t="n">
-        <v>21.09711040012049</v>
+        <v>210.0792151207337</v>
       </c>
       <c r="F12" t="n">
-        <v>21.09711040012049</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G12" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H12" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I12" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J12" t="n">
-        <v>21.09711040012049</v>
+        <v>89.55356510562322</v>
       </c>
       <c r="K12" t="n">
-        <v>95.78113116957465</v>
+        <v>246.6448318504521</v>
       </c>
       <c r="L12" t="n">
-        <v>242.5255548298713</v>
+        <v>504.1959674104398</v>
       </c>
       <c r="M12" t="n">
-        <v>433.1262439263951</v>
+        <v>1040.889774569341</v>
       </c>
       <c r="N12" t="n">
-        <v>643.1802110290001</v>
+        <v>1555.403885599981</v>
       </c>
       <c r="O12" t="n">
-        <v>813.1187583557299</v>
+        <v>1846.763131854547</v>
       </c>
       <c r="P12" t="n">
-        <v>930.1763583891335</v>
+        <v>2061.271547415447</v>
       </c>
       <c r="Q12" t="n">
-        <v>1054.855520006025</v>
+        <v>2154.745546059887</v>
       </c>
       <c r="R12" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S12" t="n">
-        <v>1054.855520006025</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T12" t="n">
-        <v>1054.855520006025</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="U12" t="n">
-        <v>1054.855520006025</v>
+        <v>1606.683255013611</v>
       </c>
       <c r="V12" t="n">
-        <v>819.7034117742819</v>
+        <v>1371.531146781868</v>
       </c>
       <c r="W12" t="n">
-        <v>565.4660550460803</v>
+        <v>1117.293790053667</v>
       </c>
       <c r="X12" t="n">
-        <v>357.6145548405475</v>
+        <v>909.4422898481339</v>
       </c>
       <c r="Y12" t="n">
-        <v>149.8542560755936</v>
+        <v>701.68199108318</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.9870578980309</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="C13" t="n">
-        <v>167.9870578980309</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="D13" t="n">
-        <v>167.9870578980309</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="E13" t="n">
-        <v>167.9870578980309</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F13" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G13" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H13" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I13" t="n">
-        <v>21.09711040012049</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J13" t="n">
-        <v>21.09711040012049</v>
+        <v>58.69630920174233</v>
       </c>
       <c r="K13" t="n">
-        <v>126.4133765287949</v>
+        <v>213.7203003246706</v>
       </c>
       <c r="L13" t="n">
-        <v>316.708372655101</v>
+        <v>467.6240706728884</v>
       </c>
       <c r="M13" t="n">
-        <v>527.7368878375337</v>
+        <v>745.7191196640788</v>
       </c>
       <c r="N13" t="n">
-        <v>739.1822330227046</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O13" t="n">
-        <v>918.4699372075542</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P13" t="n">
-        <v>1048.360858816803</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q13" t="n">
-        <v>1054.855520006025</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R13" t="n">
-        <v>1054.855520006025</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S13" t="n">
-        <v>1054.855520006025</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="T13" t="n">
-        <v>955.4268592382737</v>
+        <v>1262.751521386271</v>
       </c>
       <c r="U13" t="n">
-        <v>689.0492026710957</v>
+        <v>973.6252003602947</v>
       </c>
       <c r="V13" t="n">
-        <v>434.3647144652088</v>
+        <v>718.9407121544078</v>
       </c>
       <c r="W13" t="n">
-        <v>167.9870578980309</v>
+        <v>429.5235421174472</v>
       </c>
       <c r="X13" t="n">
-        <v>167.9870578980309</v>
+        <v>429.5235421174472</v>
       </c>
       <c r="Y13" t="n">
-        <v>167.9870578980309</v>
+        <v>208.7309629739171</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.72921106255854</v>
+        <v>1186.628457381848</v>
       </c>
       <c r="C14" t="n">
-        <v>33.72921106255854</v>
+        <v>817.6659404414363</v>
       </c>
       <c r="D14" t="n">
-        <v>33.72921106255854</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="E14" t="n">
-        <v>33.72921106255854</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="F14" t="n">
-        <v>33.72921106255854</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G14" t="n">
-        <v>33.72921106255854</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H14" t="n">
-        <v>33.72921106255854</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I14" t="n">
-        <v>33.72921106255854</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J14" t="n">
-        <v>107.8290791267618</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K14" t="n">
-        <v>269.6240911917569</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L14" t="n">
-        <v>507.2468724099484</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M14" t="n">
-        <v>803.3174389675509</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N14" t="n">
-        <v>1108.792545203136</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O14" t="n">
-        <v>1383.90876451977</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P14" t="n">
-        <v>1584.213091808873</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q14" t="n">
-        <v>1686.460553127927</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R14" t="n">
-        <v>1686.460553127927</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S14" t="n">
-        <v>1686.460553127927</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T14" t="n">
-        <v>1474.442682189358</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U14" t="n">
-        <v>1474.442682189358</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V14" t="n">
-        <v>1143.379794845787</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W14" t="n">
-        <v>790.6111395756732</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="X14" t="n">
-        <v>423.8685430383703</v>
+        <v>1573.22829744597</v>
       </c>
       <c r="Y14" t="n">
-        <v>33.72921106255854</v>
+        <v>1573.22829744597</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.8195640491023</v>
+        <v>900.5329044281298</v>
       </c>
       <c r="C15" t="n">
-        <v>757.3665347679753</v>
+        <v>726.0798751470028</v>
       </c>
       <c r="D15" t="n">
-        <v>608.432125106724</v>
+        <v>577.1454654857515</v>
       </c>
       <c r="E15" t="n">
-        <v>449.1946701012685</v>
+        <v>417.908010480296</v>
       </c>
       <c r="F15" t="n">
-        <v>302.6601121281534</v>
+        <v>271.373452507181</v>
       </c>
       <c r="G15" t="n">
-        <v>165.5587479084195</v>
+        <v>134.4974587222969</v>
       </c>
       <c r="H15" t="n">
-        <v>67.92677704067708</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="I15" t="n">
-        <v>33.72921106255854</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J15" t="n">
-        <v>59.04473788968937</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K15" t="n">
-        <v>180.4678301599682</v>
+        <v>371.4749568374566</v>
       </c>
       <c r="L15" t="n">
-        <v>390.0587034127988</v>
+        <v>629.0260923974441</v>
       </c>
       <c r="M15" t="n">
-        <v>653.9982349082861</v>
+        <v>1165.719899556346</v>
       </c>
       <c r="N15" t="n">
-        <v>939.3321053416188</v>
+        <v>1508.502423550977</v>
       </c>
       <c r="O15" t="n">
-        <v>1178.137057093077</v>
+        <v>1799.861669805543</v>
       </c>
       <c r="P15" t="n">
-        <v>1595.536043992239</v>
+        <v>2061.271547415448</v>
       </c>
       <c r="Q15" t="n">
-        <v>1686.460553127927</v>
+        <v>2154.745546059888</v>
       </c>
       <c r="R15" t="n">
-        <v>1686.460553127927</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S15" t="n">
-        <v>1686.460553127927</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T15" t="n">
-        <v>1686.460553127927</v>
+        <v>1973.749505378629</v>
       </c>
       <c r="U15" t="n">
-        <v>1458.344136258899</v>
+        <v>1973.749505378629</v>
       </c>
       <c r="V15" t="n">
-        <v>1307.795199834124</v>
+        <v>1738.597397146886</v>
       </c>
       <c r="W15" t="n">
-        <v>1307.795199834124</v>
+        <v>1484.360040418685</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.795199834124</v>
+        <v>1276.508540213152</v>
       </c>
       <c r="Y15" t="n">
-        <v>1100.03490106917</v>
+        <v>1068.748241448198</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>202.0509834694346</v>
+        <v>678.4679418657104</v>
       </c>
       <c r="C16" t="n">
-        <v>202.0509834694346</v>
+        <v>509.5317589378035</v>
       </c>
       <c r="D16" t="n">
-        <v>202.0509834694346</v>
+        <v>359.4151195254678</v>
       </c>
       <c r="E16" t="n">
-        <v>202.0509834694346</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="F16" t="n">
-        <v>202.0509834694346</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G16" t="n">
-        <v>33.72921106255854</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H16" t="n">
-        <v>33.72921106255854</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I16" t="n">
-        <v>33.72921106255854</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J16" t="n">
-        <v>35.96388306992288</v>
+        <v>58.69630920174229</v>
       </c>
       <c r="K16" t="n">
-        <v>169.472972355726</v>
+        <v>213.7203003246704</v>
       </c>
       <c r="L16" t="n">
-        <v>395.84507567387</v>
+        <v>467.6240706728881</v>
       </c>
       <c r="M16" t="n">
-        <v>644.9118420064103</v>
+        <v>745.7191196640783</v>
       </c>
       <c r="N16" t="n">
-        <v>893.4909737490111</v>
+        <v>1022.636306385108</v>
       </c>
       <c r="O16" t="n">
-        <v>1107.077740097166</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P16" t="n">
-        <v>1266.31743473321</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q16" t="n">
-        <v>1293.13166510086</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R16" t="n">
-        <v>1175.471604442305</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S16" t="n">
-        <v>972.9993576026061</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="T16" t="n">
-        <v>748.5881983780441</v>
+        <v>1262.75152138627</v>
       </c>
       <c r="U16" t="n">
-        <v>459.4515713701462</v>
+        <v>973.6252003602938</v>
       </c>
       <c r="V16" t="n">
-        <v>204.7670831642593</v>
+        <v>973.6252003602938</v>
       </c>
       <c r="W16" t="n">
-        <v>202.0509834694346</v>
+        <v>684.2080303233331</v>
       </c>
       <c r="X16" t="n">
-        <v>202.0509834694346</v>
+        <v>684.2080303233331</v>
       </c>
       <c r="Y16" t="n">
-        <v>202.0509834694346</v>
+        <v>678.4679418657104</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>699.9675322531655</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="C17" t="n">
-        <v>331.0050153127538</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="D17" t="n">
-        <v>331.0050153127538</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E17" t="n">
-        <v>331.0050153127538</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F17" t="n">
-        <v>42.07568296927691</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G17" t="n">
-        <v>42.07568296927691</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H17" t="n">
-        <v>42.07568296927691</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I17" t="n">
-        <v>42.07568296927691</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J17" t="n">
-        <v>146.5127310233411</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K17" t="n">
-        <v>353.7753117904996</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L17" t="n">
-        <v>647.8046325011725</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M17" t="n">
-        <v>1006.638342620768</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N17" t="n">
-        <v>1375.892165698025</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O17" t="n">
-        <v>1711.232818776767</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P17" t="n">
-        <v>1962.93730694031</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q17" t="n">
-        <v>2103.784148463846</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R17" t="n">
-        <v>2103.784148463846</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S17" t="n">
-        <v>2103.784148463846</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T17" t="n">
-        <v>2103.784148463846</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U17" t="n">
-        <v>1850.172462554179</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V17" t="n">
-        <v>1850.172462554179</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="W17" t="n">
-        <v>1850.172462554179</v>
+        <v>1605.517173786454</v>
       </c>
       <c r="X17" t="n">
-        <v>1476.706704293099</v>
+        <v>1232.051415525374</v>
       </c>
       <c r="Y17" t="n">
-        <v>1086.567372317287</v>
+        <v>870.3861466242934</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>775.847092460509</v>
+        <v>533.4666540631119</v>
       </c>
       <c r="C18" t="n">
-        <v>601.394063179382</v>
+        <v>359.013624781985</v>
       </c>
       <c r="D18" t="n">
-        <v>452.4596535181307</v>
+        <v>359.013624781985</v>
       </c>
       <c r="E18" t="n">
-        <v>293.2221985126752</v>
+        <v>199.7761697765295</v>
       </c>
       <c r="F18" t="n">
-        <v>146.6876405395602</v>
+        <v>199.7761697765295</v>
       </c>
       <c r="G18" t="n">
-        <v>42.07568296927691</v>
+        <v>62.90017599164537</v>
       </c>
       <c r="H18" t="n">
-        <v>42.07568296927691</v>
+        <v>62.90017599164537</v>
       </c>
       <c r="I18" t="n">
-        <v>42.07568296927691</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J18" t="n">
-        <v>210.2899513548847</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K18" t="n">
-        <v>622.3506948186476</v>
+        <v>427.186815718362</v>
       </c>
       <c r="L18" t="n">
-        <v>873.4664212988462</v>
+        <v>684.7379512783496</v>
       </c>
       <c r="M18" t="n">
-        <v>1185.863497909878</v>
+        <v>1004.644846746859</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.937440488039</v>
+        <v>1347.42737074149</v>
       </c>
       <c r="O18" t="n">
-        <v>1805.244840740154</v>
+        <v>1638.786616996056</v>
       </c>
       <c r="P18" t="n">
-        <v>2014.093528182363</v>
+        <v>1853.295032556957</v>
       </c>
       <c r="Q18" t="n">
-        <v>2103.784148463846</v>
+        <v>2154.745546059887</v>
       </c>
       <c r="R18" t="n">
-        <v>2103.784148463846</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S18" t="n">
-        <v>2103.784148463846</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T18" t="n">
-        <v>1908.951935776093</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="U18" t="n">
-        <v>1680.84835639094</v>
+        <v>1606.683255013611</v>
       </c>
       <c r="V18" t="n">
-        <v>1445.696248159197</v>
+        <v>1371.531146781868</v>
       </c>
       <c r="W18" t="n">
-        <v>1191.458891430996</v>
+        <v>1117.293790053667</v>
       </c>
       <c r="X18" t="n">
-        <v>983.6073912254628</v>
+        <v>909.4422898481339</v>
       </c>
       <c r="Y18" t="n">
-        <v>775.847092460509</v>
+        <v>701.68199108318</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>211.0118658971838</v>
+        <v>528.3513024533747</v>
       </c>
       <c r="C19" t="n">
-        <v>42.07568296927691</v>
+        <v>359.4151195254678</v>
       </c>
       <c r="D19" t="n">
-        <v>42.07568296927691</v>
+        <v>359.4151195254678</v>
       </c>
       <c r="E19" t="n">
-        <v>42.07568296927691</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="F19" t="n">
-        <v>42.07568296927691</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G19" t="n">
-        <v>42.07568296927691</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H19" t="n">
-        <v>42.07568296927691</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I19" t="n">
-        <v>42.07568296927691</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J19" t="n">
-        <v>55.64602435139209</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K19" t="n">
-        <v>207.7831005999464</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L19" t="n">
-        <v>457.9926138389694</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M19" t="n">
-        <v>732.1925866815815</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N19" t="n">
-        <v>1005.307313458923</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O19" t="n">
-        <v>1241.556673022795</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P19" t="n">
-        <v>1420.188131238842</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q19" t="n">
-        <v>1460.428213555937</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R19" t="n">
-        <v>1460.428213555937</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S19" t="n">
-        <v>1460.428213555937</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="T19" t="n">
-        <v>1236.716030775803</v>
+        <v>1262.751521386271</v>
       </c>
       <c r="U19" t="n">
-        <v>947.588326871451</v>
+        <v>1262.751521386271</v>
       </c>
       <c r="V19" t="n">
-        <v>692.9038386655642</v>
+        <v>1262.751521386271</v>
       </c>
       <c r="W19" t="n">
-        <v>692.9038386655642</v>
+        <v>973.3343513493101</v>
       </c>
       <c r="X19" t="n">
-        <v>613.4529098709537</v>
+        <v>745.3448004512927</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.6603307274236</v>
+        <v>709.9997672836145</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>566.5449354167174</v>
+        <v>588.8885387922071</v>
       </c>
       <c r="C20" t="n">
-        <v>566.5449354167174</v>
+        <v>588.8885387922071</v>
       </c>
       <c r="D20" t="n">
-        <v>566.5449354167174</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="E20" t="n">
-        <v>458.1632479180727</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="F20" t="n">
-        <v>458.1632479180727</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G20" t="n">
-        <v>42.0756829692769</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H20" t="n">
-        <v>42.0756829692769</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I20" t="n">
-        <v>42.0756829692769</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J20" t="n">
-        <v>146.5127310233412</v>
+        <v>152.5078184301898</v>
       </c>
       <c r="K20" t="n">
-        <v>353.7753117905001</v>
+        <v>366.8168396232715</v>
       </c>
       <c r="L20" t="n">
-        <v>647.8046325011728</v>
+        <v>669.5878927711864</v>
       </c>
       <c r="M20" t="n">
-        <v>1006.638342620768</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N20" t="n">
-        <v>1375.892165698025</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O20" t="n">
-        <v>1711.232818776767</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P20" t="n">
-        <v>1962.937306940309</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q20" t="n">
-        <v>2103.784148463845</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R20" t="n">
-        <v>2103.784148463845</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S20" t="n">
-        <v>1970.361551627398</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T20" t="n">
-        <v>1970.361551627398</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="U20" t="n">
-        <v>1716.749865717731</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="V20" t="n">
-        <v>1716.749865717731</v>
+        <v>1705.262284299213</v>
       </c>
       <c r="W20" t="n">
-        <v>1716.749865717731</v>
+        <v>1352.493629029099</v>
       </c>
       <c r="X20" t="n">
-        <v>1343.284107456651</v>
+        <v>979.0278707680188</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.1447754808391</v>
+        <v>588.8885387922071</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>903.8887975899542</v>
+        <v>761.5682439298473</v>
       </c>
       <c r="C21" t="n">
-        <v>729.4357683088272</v>
+        <v>587.1152146487203</v>
       </c>
       <c r="D21" t="n">
-        <v>580.5013586475759</v>
+        <v>438.1808049874691</v>
       </c>
       <c r="E21" t="n">
-        <v>421.2639036421203</v>
+        <v>278.9433499820136</v>
       </c>
       <c r="F21" t="n">
-        <v>274.7293456690053</v>
+        <v>132.4087920088985</v>
       </c>
       <c r="G21" t="n">
-        <v>137.8231112041713</v>
+        <v>132.4087920088985</v>
       </c>
       <c r="H21" t="n">
-        <v>42.0756829692769</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I21" t="n">
-        <v>42.0756829692769</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J21" t="n">
-        <v>210.2899513548847</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K21" t="n">
-        <v>622.3506948186472</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L21" t="n">
-        <v>873.4664212988457</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M21" t="n">
-        <v>1185.863497909878</v>
+        <v>1018.710078441079</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.937440488038</v>
+        <v>1555.40388559998</v>
       </c>
       <c r="O21" t="n">
-        <v>1805.244840740154</v>
+        <v>1846.763131854546</v>
       </c>
       <c r="P21" t="n">
-        <v>2014.093528182362</v>
+        <v>2061.271547415447</v>
       </c>
       <c r="Q21" t="n">
-        <v>2103.784148463845</v>
+        <v>2154.745546059887</v>
       </c>
       <c r="R21" t="n">
-        <v>2103.784148463845</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S21" t="n">
-        <v>2103.784148463845</v>
+        <v>2029.49516640637</v>
       </c>
       <c r="T21" t="n">
-        <v>2103.784148463845</v>
+        <v>1834.784844880346</v>
       </c>
       <c r="U21" t="n">
-        <v>1875.680569078692</v>
+        <v>1834.784844880346</v>
       </c>
       <c r="V21" t="n">
-        <v>1741.95329030871</v>
+        <v>1599.632736648604</v>
       </c>
       <c r="W21" t="n">
-        <v>1487.715933580509</v>
+        <v>1345.395379920402</v>
       </c>
       <c r="X21" t="n">
-        <v>1279.864433374976</v>
+        <v>1137.543879714869</v>
       </c>
       <c r="Y21" t="n">
-        <v>1072.104134610022</v>
+        <v>929.7835809499154</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>974.3553512364587</v>
+        <v>657.2250599586391</v>
       </c>
       <c r="C22" t="n">
-        <v>805.4191683085518</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D22" t="n">
-        <v>655.302528896216</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E22" t="n">
-        <v>507.3894353138229</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F22" t="n">
-        <v>360.4994878159125</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G22" t="n">
-        <v>192.3413056407111</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H22" t="n">
-        <v>42.0756829692769</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I22" t="n">
-        <v>42.0756829692769</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J22" t="n">
-        <v>55.64602435139209</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K22" t="n">
-        <v>207.7831005999464</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L22" t="n">
-        <v>457.9926138389694</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M22" t="n">
-        <v>732.1925866815815</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N22" t="n">
-        <v>1005.307313458923</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O22" t="n">
-        <v>1241.556673022795</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P22" t="n">
-        <v>1420.188131238842</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q22" t="n">
-        <v>1460.428213555937</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R22" t="n">
-        <v>1460.428213555937</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S22" t="n">
-        <v>1460.428213555937</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="T22" t="n">
-        <v>1236.716030775803</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="U22" t="n">
-        <v>1236.716030775803</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="V22" t="n">
-        <v>1236.716030775803</v>
+        <v>1231.67089048776</v>
       </c>
       <c r="W22" t="n">
-        <v>1236.716030775803</v>
+        <v>942.2537204507994</v>
       </c>
       <c r="X22" t="n">
-        <v>1236.716030775803</v>
+        <v>942.2537204507994</v>
       </c>
       <c r="Y22" t="n">
-        <v>1156.003816066698</v>
+        <v>838.8735247888789</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1621.991392838317</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="C23" t="n">
-        <v>1621.991392838317</v>
+        <v>1510.345786565035</v>
       </c>
       <c r="D23" t="n">
-        <v>1263.725694231566</v>
+        <v>1152.080087958285</v>
       </c>
       <c r="E23" t="n">
-        <v>877.9374416333219</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="F23" t="n">
-        <v>466.9515368437143</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G23" t="n">
-        <v>51.24678656800313</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H23" t="n">
         <v>51.24678656800313</v>
@@ -6016,25 +6016,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S23" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T23" t="n">
-        <v>2437.640120926627</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U23" t="n">
-        <v>2364.899380084243</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V23" t="n">
-        <v>2364.899380084243</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="W23" t="n">
-        <v>2012.130724814128</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X23" t="n">
-        <v>2012.130724814128</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y23" t="n">
-        <v>1621.991392838317</v>
+        <v>1747.243971000046</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>165.4432786182532</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058019</v>
       </c>
       <c r="I24" t="n">
         <v>51.24678656800313</v>
       </c>
       <c r="J24" t="n">
-        <v>114.5432626034359</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K24" t="n">
-        <v>299.2648838844859</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L24" t="n">
-        <v>593.9684409159577</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M24" t="n">
-        <v>957.2304598751778</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.515588472123</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O24" t="n">
-        <v>1676.586023648285</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P24" t="n">
-        <v>2239.04689843412</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q24" t="n">
         <v>2562.339328400156</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>518.0887888085541</v>
+        <v>834.9380653188541</v>
       </c>
       <c r="C25" t="n">
-        <v>518.0887888085541</v>
+        <v>666.0018823909472</v>
       </c>
       <c r="D25" t="n">
-        <v>367.9721493962184</v>
+        <v>515.8852429786115</v>
       </c>
       <c r="E25" t="n">
         <v>367.9721493962184</v>
@@ -6171,28 +6171,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R25" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S25" t="n">
-        <v>1547.592328044959</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T25" t="n">
-        <v>1324.613847239694</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U25" t="n">
-        <v>1035.495509743532</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V25" t="n">
-        <v>1035.495509743532</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W25" t="n">
-        <v>746.0783397065715</v>
+        <v>1465.368660190641</v>
       </c>
       <c r="X25" t="n">
-        <v>518.0887888085541</v>
+        <v>1237.379109292624</v>
       </c>
       <c r="Y25" t="n">
-        <v>518.0887888085541</v>
+        <v>1016.586530149094</v>
       </c>
     </row>
     <row r="26">
@@ -6217,13 +6217,13 @@
         <v>466.9515368437143</v>
       </c>
       <c r="G26" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H26" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I26" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J26" t="n">
         <v>187.5281822362819</v>
@@ -6232,10 +6232,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M26" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N26" t="n">
         <v>1656.671415230817</v>
@@ -6253,19 +6253,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S26" t="n">
-        <v>2502.791568401495</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T26" t="n">
-        <v>2294.04592700732</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U26" t="n">
-        <v>2040.4648662715</v>
+        <v>2413.93062453258</v>
       </c>
       <c r="V26" t="n">
-        <v>2040.4648662715</v>
+        <v>2413.93062453258</v>
       </c>
       <c r="W26" t="n">
-        <v>2040.4648662715</v>
+        <v>2413.93062453258</v>
       </c>
       <c r="X26" t="n">
         <v>2040.4648662715</v>
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E27" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G27" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J27" t="n">
-        <v>238.4273302370161</v>
+        <v>168.0008189145195</v>
       </c>
       <c r="K27" t="n">
-        <v>590.2049751143497</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L27" t="n">
-        <v>884.9085321458215</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M27" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N27" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O27" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P27" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q27" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R27" t="n">
         <v>2562.339328400155</v>
@@ -6338,16 +6338,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V27" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y27" t="n">
         <v>1099.519478116707</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.688737789358</v>
+        <v>131.4655134886758</v>
       </c>
       <c r="C28" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D28" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E28" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F28" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G28" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H28" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I28" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J28" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K28" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L28" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M28" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N28" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O28" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P28" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q28" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R28" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T28" t="n">
-        <v>2562.339328400155</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.220990903993</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.536502698106</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.119332661145</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.129781763128</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.337202619598</v>
+        <v>131.4655134886758</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1198.574246756698</v>
+        <v>1164.26325471341</v>
       </c>
       <c r="C29" t="n">
-        <v>1198.574246756698</v>
+        <v>795.3007377729979</v>
       </c>
       <c r="D29" t="n">
-        <v>877.9374416333219</v>
+        <v>437.0350391662474</v>
       </c>
       <c r="E29" t="n">
-        <v>877.9374416333219</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F29" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G29" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H29" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I29" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M29" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N29" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O29" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P29" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q29" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R29" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T29" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U29" t="n">
-        <v>1975.313418796631</v>
+        <v>2314.468185014423</v>
       </c>
       <c r="V29" t="n">
-        <v>1975.313418796631</v>
+        <v>2314.468185014423</v>
       </c>
       <c r="W29" t="n">
-        <v>1975.313418796631</v>
+        <v>2314.468185014423</v>
       </c>
       <c r="X29" t="n">
-        <v>1975.313418796631</v>
+        <v>1941.002426753343</v>
       </c>
       <c r="Y29" t="n">
-        <v>1585.174086820819</v>
+        <v>1550.863094777531</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E30" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F30" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G30" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I30" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J30" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K30" t="n">
-        <v>684.9695361605189</v>
+        <v>299.264883884485</v>
       </c>
       <c r="L30" t="n">
-        <v>979.6730931919907</v>
+        <v>593.9684409159568</v>
       </c>
       <c r="M30" t="n">
-        <v>1342.935112151211</v>
+        <v>957.2304598751768</v>
       </c>
       <c r="N30" t="n">
-        <v>1730.220240748156</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O30" t="n">
-        <v>2062.290675924318</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P30" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q30" t="n">
         <v>2562.339328400155</v>
@@ -6581,7 +6581,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W30" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X30" t="n">
         <v>1307.279776881661</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K31" t="n">
         <v>248.4064713020476</v>
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1412.134398099142</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C32" t="n">
-        <v>1043.17188115873</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D32" t="n">
-        <v>684.90618255198</v>
+        <v>933.2161775761949</v>
       </c>
       <c r="E32" t="n">
-        <v>466.9515368437143</v>
+        <v>933.2161775761949</v>
       </c>
       <c r="F32" t="n">
-        <v>466.9515368437143</v>
+        <v>522.2302727865874</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800311</v>
+        <v>106.5255225108763</v>
       </c>
       <c r="H32" t="n">
-        <v>51.24678656800311</v>
+        <v>106.5255225108763</v>
       </c>
       <c r="I32" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L32" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M32" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N32" t="n">
         <v>1656.671415230817</v>
@@ -6718,34 +6718,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P32" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q32" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R32" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T32" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U32" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V32" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W32" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X32" t="n">
-        <v>2188.873570139076</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y32" t="n">
-        <v>1798.734238163264</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K33" t="n">
-        <v>507.2413987429757</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L33" t="n">
-        <v>801.9449557744474</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M33" t="n">
-        <v>1165.206974733667</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N33" t="n">
-        <v>1552.492103330613</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O33" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P33" t="n">
         <v>2447.023413292609</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>716.5983551657496</v>
+        <v>177.8065995564534</v>
       </c>
       <c r="C34" t="n">
-        <v>547.6621722378427</v>
+        <v>177.8065995564534</v>
       </c>
       <c r="D34" t="n">
-        <v>547.6621722378427</v>
+        <v>177.8065995564534</v>
       </c>
       <c r="E34" t="n">
-        <v>514.8620968941286</v>
+        <v>177.8065995564534</v>
       </c>
       <c r="F34" t="n">
-        <v>367.9721493962183</v>
+        <v>177.8065995564534</v>
       </c>
       <c r="G34" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H34" t="n">
         <v>51.24678656800311</v>
@@ -6888,22 +6888,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T34" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U34" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V34" t="n">
-        <v>1636.446120074497</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W34" t="n">
-        <v>1347.028950037537</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X34" t="n">
-        <v>1119.039399139519</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="Y34" t="n">
-        <v>898.2468199959893</v>
+        <v>359.4550643866932</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1236.203140240072</v>
+        <v>724.2684475108446</v>
       </c>
       <c r="C35" t="n">
-        <v>1236.203140240072</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="D35" t="n">
-        <v>877.9374416333219</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="E35" t="n">
-        <v>877.9374416333219</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F35" t="n">
-        <v>466.9515368437143</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G35" t="n">
-        <v>51.24678656800313</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H35" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I35" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M35" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N35" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O35" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P35" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q35" t="n">
         <v>2542.250581723851</v>
@@ -6964,25 +6964,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S35" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T35" t="n">
-        <v>2353.593687005981</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U35" t="n">
-        <v>2100.012626270161</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V35" t="n">
-        <v>1768.94973892659</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W35" t="n">
-        <v>1768.94973892659</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X35" t="n">
-        <v>1626.342472215884</v>
+        <v>918.016117921866</v>
       </c>
       <c r="Y35" t="n">
-        <v>1236.203140240072</v>
+        <v>724.2684475108446</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542611</v>
       </c>
       <c r="E36" t="n">
-        <v>448.679247148806</v>
+        <v>448.6792471488056</v>
       </c>
       <c r="F36" t="n">
-        <v>302.144689175691</v>
+        <v>302.1446891756906</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4432786182532</v>
+        <v>165.4432786182527</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812058019</v>
+        <v>71.67401812057973</v>
       </c>
       <c r="I36" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J36" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K36" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380233</v>
       </c>
       <c r="L36" t="n">
-        <v>854.8429682049859</v>
+        <v>909.246581869495</v>
       </c>
       <c r="M36" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N36" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O36" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.685363568937</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q36" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R36" t="n">
         <v>2562.339328400156</v>
       </c>
       <c r="S36" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T36" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V36" t="n">
         <v>1769.368633815396</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y36" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>977.1399948936621</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="C37" t="n">
-        <v>977.1399948936621</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="D37" t="n">
-        <v>977.1399948936621</v>
+        <v>653.1094849231519</v>
       </c>
       <c r="E37" t="n">
-        <v>977.1399948936621</v>
+        <v>505.1963913407587</v>
       </c>
       <c r="F37" t="n">
-        <v>977.1399948936621</v>
+        <v>358.3064438428484</v>
       </c>
       <c r="G37" t="n">
-        <v>977.1399948936621</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H37" t="n">
-        <v>977.1399948936621</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I37" t="n">
-        <v>977.1399948936621</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J37" t="n">
-        <v>1002.609167878781</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K37" t="n">
-        <v>1174.299679627707</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L37" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M37" t="n">
-        <v>1750.112669035318</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N37" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O37" t="n">
-        <v>2309.019775324694</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P37" t="n">
-        <v>2508.006390496683</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q37" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R37" t="n">
-        <v>2459.755921915738</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>2263.1271740756</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T37" t="n">
-        <v>2040.148693270335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U37" t="n">
-        <v>1751.030355774173</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V37" t="n">
-        <v>1496.345867568286</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W37" t="n">
-        <v>1206.928697531325</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X37" t="n">
-        <v>978.9391466333079</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="Y37" t="n">
-        <v>977.1399948936621</v>
+        <v>803.2261243354876</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1709.873294294349</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="C38" t="n">
-        <v>1340.910777353937</v>
+        <v>922.5193592425346</v>
       </c>
       <c r="D38" t="n">
-        <v>982.6450787471867</v>
+        <v>564.2536606357842</v>
       </c>
       <c r="E38" t="n">
-        <v>877.9374416333219</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F38" t="n">
-        <v>466.9515368437143</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G38" t="n">
-        <v>51.24678656800313</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H38" t="n">
         <v>51.24678656800313</v>
@@ -7201,25 +7201,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S38" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T38" t="n">
-        <v>2353.593687005981</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U38" t="n">
-        <v>2100.012626270161</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V38" t="n">
-        <v>2100.012626270161</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W38" t="n">
-        <v>2100.012626270161</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X38" t="n">
-        <v>2100.012626270161</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="Y38" t="n">
-        <v>1709.873294294349</v>
+        <v>1291.481876182946</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>238.4273302370162</v>
       </c>
       <c r="K39" t="n">
-        <v>614.5430248380237</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L39" t="n">
-        <v>909.2465818694955</v>
+        <v>884.9085321458224</v>
       </c>
       <c r="M39" t="n">
-        <v>1272.508600828716</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.793729425661</v>
+        <v>1635.455679701988</v>
       </c>
       <c r="O39" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P39" t="n">
-        <v>2239.04689843412</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R39" t="n">
         <v>2562.339328400156</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>977.1399948936621</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="C40" t="n">
-        <v>977.1399948936621</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="D40" t="n">
-        <v>977.1399948936621</v>
+        <v>430.1310041178875</v>
       </c>
       <c r="E40" t="n">
-        <v>977.1399948936621</v>
+        <v>430.1310041178875</v>
       </c>
       <c r="F40" t="n">
-        <v>977.1399948936621</v>
+        <v>283.2410566199771</v>
       </c>
       <c r="G40" t="n">
-        <v>977.1399948936621</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H40" t="n">
-        <v>977.1399948936621</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I40" t="n">
-        <v>977.1399948936621</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J40" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K40" t="n">
-        <v>1174.299679627707</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L40" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M40" t="n">
-        <v>1750.112669035318</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N40" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O40" t="n">
-        <v>2309.019775324694</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P40" t="n">
-        <v>2508.006390496683</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q40" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R40" t="n">
-        <v>2459.755921915738</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>2263.1271740756</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T40" t="n">
-        <v>2040.148693270335</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U40" t="n">
-        <v>1751.030355774173</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V40" t="n">
-        <v>1496.345867568286</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W40" t="n">
-        <v>1206.928697531325</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X40" t="n">
-        <v>978.9391466333079</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="Y40" t="n">
-        <v>977.1399948936621</v>
+        <v>580.2476435302233</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1412.134398099142</v>
+        <v>1164.26325471341</v>
       </c>
       <c r="C41" t="n">
-        <v>1263.725694231566</v>
+        <v>795.3007377729979</v>
       </c>
       <c r="D41" t="n">
-        <v>1263.725694231566</v>
+        <v>437.0350391662474</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9374416333219</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F41" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G41" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H41" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I41" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J41" t="n">
         <v>187.5281822362819</v>
@@ -7417,10 +7417,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L41" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M41" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N41" t="n">
         <v>1656.671415230817</v>
@@ -7441,22 +7441,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T41" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U41" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V41" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W41" t="n">
-        <v>2562.339328400155</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X41" t="n">
-        <v>2188.873570139075</v>
+        <v>1373.778212738966</v>
       </c>
       <c r="Y41" t="n">
-        <v>1798.734238163263</v>
+        <v>1164.26325471341</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H42" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I42" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J42" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>590.2049751143493</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L42" t="n">
-        <v>884.908532145821</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M42" t="n">
-        <v>1248.170551105041</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N42" t="n">
-        <v>1635.455679701986</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O42" t="n">
-        <v>1967.526114878148</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P42" t="n">
-        <v>2214.708848710445</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q42" t="n">
         <v>2538.001278676482</v>
@@ -7523,16 +7523,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V42" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y42" t="n">
         <v>1099.519478116707</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.2467865680031</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J43" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K43" t="n">
         <v>248.4064713020476</v>
@@ -7593,28 +7593,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T43" t="n">
-        <v>1333.24891234856</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U43" t="n">
-        <v>1044.130574852398</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V43" t="n">
-        <v>789.4460866465112</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W43" t="n">
-        <v>500.0289166095505</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X43" t="n">
-        <v>272.0393657115332</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.2467865680031</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1263.725694231566</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.725694231566</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="D44" t="n">
-        <v>1263.725694231566</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="E44" t="n">
-        <v>877.9374416333219</v>
+        <v>532.2278653236212</v>
       </c>
       <c r="F44" t="n">
-        <v>466.9515368437143</v>
+        <v>532.2278653236212</v>
       </c>
       <c r="G44" t="n">
-        <v>51.2467865680031</v>
+        <v>116.5231150479101</v>
       </c>
       <c r="H44" t="n">
-        <v>51.2467865680031</v>
+        <v>116.5231150479101</v>
       </c>
       <c r="I44" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L44" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N44" t="n">
         <v>1656.671415230817</v>
@@ -7675,25 +7675,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U44" t="n">
-        <v>2413.93062453258</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V44" t="n">
-        <v>2413.93062453258</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W44" t="n">
-        <v>2413.93062453258</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X44" t="n">
-        <v>2040.4648662715</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y44" t="n">
-        <v>1650.325534295688</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I45" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J45" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>590.2049751143493</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L45" t="n">
-        <v>884.908532145821</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M45" t="n">
-        <v>1248.170551105041</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N45" t="n">
-        <v>1635.455679701986</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O45" t="n">
-        <v>1967.526114878148</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P45" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q45" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R45" t="n">
         <v>2562.339328400155</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>368.9218676324038</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C46" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D46" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E46" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F46" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G46" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H46" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I46" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J46" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K46" t="n">
         <v>248.4064713020476</v>
@@ -7833,25 +7833,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T46" t="n">
-        <v>1413.467639269233</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U46" t="n">
-        <v>1141.013076773269</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V46" t="n">
-        <v>886.3285885673818</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W46" t="n">
-        <v>596.9114185304211</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X46" t="n">
-        <v>368.9218676324038</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y46" t="n">
-        <v>368.9218676324038</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>202.1809638361346</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L2" t="n">
-        <v>213.5488567752802</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>205.6249188705004</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>204.2917325281876</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
-        <v>206.3768508508745</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P2" t="n">
-        <v>210.9873633211545</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q2" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>125.4955336943436</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0262495446562</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N4" t="n">
-        <v>118.0213988638391</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O4" t="n">
-        <v>129.5301358016631</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P4" t="n">
-        <v>130.0899244982092</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100.9387195582597</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>100.0299464227919</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318186</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323863</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N5" t="n">
-        <v>61.00144891149961</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O5" t="n">
-        <v>71.0718992657024</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P5" t="n">
-        <v>95.50771753390021</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.3816583481039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>79.12633608862856</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
-        <v>56.29524403393702</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L6" t="n">
-        <v>28.90545725697471</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M6" t="n">
-        <v>14.17891314335149</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O6" t="n">
-        <v>22.44423757443683</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P6" t="n">
-        <v>37.54182911310821</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>79.82491575659759</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>71.94053294496764</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N7" t="n">
-        <v>62.89780050171086</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O7" t="n">
-        <v>78.61457070130248</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P7" t="n">
-        <v>86.52286261917671</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280013</v>
+        <v>130.7107336785841</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>144.6504779906583</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>142.1772018904203</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729366</v>
+        <v>126.2102009654506</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>123.5920014619027</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>130.1743831799373</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>145.9503201704078</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>158.2619521943894</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913169</v>
+        <v>96.85834373997855</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>86.602069422719</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>69.65672408674497</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>61.73371942061293</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.81344049567814</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>67.0989991483091</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>73.38121210946287</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>99.4768276908527</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>98.10587302004777</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>95.33386432888503</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>97.22499817688065</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>86.97631017429748</v>
       </c>
       <c r="O10" t="n">
-        <v>71.9833858147683</v>
+        <v>100.8549716036596</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615827</v>
+        <v>105.5533677391252</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>60.51967546761153</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>2.051220519418266</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>218.9766784751436</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>173.466249531321</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>26.19461818159743</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>218.9766784751438</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>247.5454807529823</v>
+        <v>47.37521419091331</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.90541300402741</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.51484907667637</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>262.3793005514478</v>
+        <v>56.2746049302074</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>33.52765997685619</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.51484907667637</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>262.3793005514473</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>196.5729450122528</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>195.8699829942121</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>33.52765997685619</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9556134883075913</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515152</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>20.93778120154988</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>54.9531451156648</v>
       </c>
       <c r="K27" t="n">
-        <v>168.7434581780643</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0.9556134883067102</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>138.9393975111053</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>20.93778120154988</v>
@@ -10430,22 +10430,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>240.4465442417444</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3273467878359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>168.7434581780652</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>168.7434581780638</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013349</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>168.7434581780638</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>138.9393975111055</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.1619485273195</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>414.3588981658848</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H5" t="n">
-        <v>329.8087073802583</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>174.0885230584365</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>90.58066941881005</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
-        <v>187.5123304152058</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>218.9641928127885</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2701457598965</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8385185906377</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>107.3582211803319</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>72.00962059397116</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>68.80362453272261</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
-        <v>162.3030441088983</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>198.1292300623896</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.908158490674</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.5676055192152</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>158.4629941912556</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7184689252781</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>63.42664968215054</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.71025749466926</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R7" t="n">
-        <v>158.2569640235438</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>216.6383466748816</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>226.1366284787861</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2959362379867</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.2543098065221</v>
+        <v>414.709678167008</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>333.4011330667605</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>187.611969051736</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.0108208899931</v>
+        <v>112.6153536643609</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>195.5057296907991</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>220.499732267705</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2982081599863</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>137.0262024374651</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>109.170852016796</v>
       </c>
       <c r="I9" t="n">
-        <v>70.08293774516886</v>
+        <v>78.47154251324592</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>65.32921403493339</v>
+        <v>80.45648653135362</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>165.7891892462396</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>198.8857276730665</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9205061121758</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>167.7249533516862</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>159.861959465407</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>147.4503473781336</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604452</v>
+        <v>74.55114143785102</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.7817879815572</v>
+        <v>63.88599281185546</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>165.3318947453767</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>219.3804902643991</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>226.8089328538895</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>286.3045188470306</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.83417464571</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H11" t="n">
-        <v>314.193632629268</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>115.3066195468971</v>
+        <v>78.16360657708296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>152.7676931992223</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
-        <v>212.2897156032232</v>
+        <v>121.9838877585329</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>116.9617832120865</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>106.0172206769629</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>30.17550623668259</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>115.5335278436049</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.47932027120976</v>
+        <v>94.50081326185513</v>
       </c>
       <c r="I12" t="n">
-        <v>43.9218040015056</v>
+        <v>26.17372043046392</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>161.5448794334027</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,16 +23430,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.8836670385466</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H13" t="n">
-        <v>152.3821593358568</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
-        <v>122.1505735248085</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>127.5046028836639</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S13" t="n">
-        <v>204.7191642435938</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T13" t="n">
-        <v>124.7799717194925</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>22.54475050117134</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>22.80911833508486</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.2877386950441</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>308.5974454495113</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
-        <v>94.24014755885167</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>140.3157839734241</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>6.655930106539188</v>
+        <v>359.2752376786237</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>30.45755412995724</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>141.7193093041456</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T15" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V15" t="n">
-        <v>83.75714008889861</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>150.2028876639205</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I16" t="n">
-        <v>114.7793764994862</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>283.8340596387146</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>212.9019657790483</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>120.8360067216694</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9266892993078</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>304.8998483254268</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I17" t="n">
-        <v>80.32079072972752</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.0883708680829</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T17" t="n">
-        <v>208.3171984993478</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>28.18932244398371</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>31.97133412560528</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>94.7899539525454</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I18" t="n">
-        <v>27.2044899227067</v>
+        <v>6.838050771447143</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.1311041862481</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4766003534494</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.7629664447198</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I19" t="n">
-        <v>109.9089681220672</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.2014044792025</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S19" t="n">
-        <v>197.625102104218</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>147.0532358823728</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>183.5930705160933</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>304.6532342098199</v>
       </c>
       <c r="E20" t="n">
-        <v>274.6324994486035</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>304.8998483254268</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I20" t="n">
-        <v>80.32079072972752</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>208.3171984993478</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>6.351613745757717</v>
       </c>
       <c r="I21" t="n">
-        <v>27.2044899227067</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.1311041862481</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>192.8838905608747</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V21" t="n">
-        <v>100.4105811671438</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I22" t="n">
-        <v>109.9089681220672</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.2014044792025</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S22" t="n">
-        <v>197.625102104218</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2364268653085</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>138.6795607900811</v>
+        <v>116.2382596467935</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>130.7436891803462</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>65.70991267247047</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>179.0319166945017</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>106.6972062524942</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>218.713885471147</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.49993300012072</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>104.1206332995625</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>46.91356563188765</v>
+        <v>87.83028144716182</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24654,7 +24654,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>37.25260454854094</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
         <v>301.0185525624054</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>5.652818176586891</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>76.49324754011407</v>
+        <v>76.49324754011404</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>166.1552708210787</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
-        <v>65.70991267247047</v>
+        <v>10.98396408902604</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>113.9618880562923</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>41.01238518623835</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I34" t="n">
         <v>104.7965952039006</v>
@@ -25128,19 +25128,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>65.70991267247047</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>228.5499066348704</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>194.4277449491424</v>
       </c>
     </row>
     <row r="36">
@@ -25317,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>9.569048497836263</v>
       </c>
       <c r="H37" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>104.7965952039006</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.8034931298454</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>278.2698093295356</v>
+        <v>175.072117307564</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>65.70991267247047</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25554,19 +25554,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3066000448042</v>
+        <v>83.88378184847876</v>
       </c>
       <c r="H40" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>104.7965952039006</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>216.8034931298454</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>218.3482749421078</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
         <v>301.0185525624054</v>
@@ -25681,22 +25681,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>178.8181302107531</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>22.14103276810769</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>241.5760259936249</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247047</v>
+        <v>1.086347477362551</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>104.1206332995625</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I46" t="n">
         <v>104.7965952039006</v>
@@ -26073,16 +26073,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>16.49713725019609</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>115.2459207102716</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>339154.8351775541</v>
+        <v>339462.9945247265</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>324465.9182302143</v>
+        <v>339462.9945247265</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>322664.4678670603</v>
+        <v>331128.728558674</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>530851.177782529</v>
+        <v>725864.5047356035</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>641985.9082699838</v>
+        <v>725864.5047356036</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>714609.497875179</v>
+        <v>725864.5047356036</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>714609.4978751789</v>
+        <v>725864.5047356035</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>794677.29834192</v>
+        <v>794677.2983419198</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>794677.29834192</v>
+        <v>794677.2983419199</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>794677.29834192</v>
+        <v>794677.2983419199</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>794677.2983419198</v>
+        <v>794677.2983419199</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>794677.2983419197</v>
+        <v>794677.2983419199</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104220.7557434676</v>
+        <v>103649.9010013378</v>
       </c>
       <c r="C2" t="n">
-        <v>110833.3667592301</v>
+        <v>103649.9010013379</v>
       </c>
       <c r="D2" t="n">
-        <v>111672.4153895514</v>
+        <v>108019.2727120543</v>
       </c>
       <c r="E2" t="n">
-        <v>193768.2521372568</v>
+        <v>265569.8802231801</v>
       </c>
       <c r="F2" t="n">
-        <v>234651.8339453228</v>
+        <v>265569.8802231801</v>
       </c>
       <c r="G2" t="n">
-        <v>261421.2316092176</v>
+        <v>265569.8802231801</v>
       </c>
       <c r="H2" t="n">
-        <v>261421.2316092176</v>
+        <v>265569.88022318</v>
       </c>
       <c r="I2" t="n">
-        <v>290673.0489695931</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="J2" t="n">
         <v>290673.0489695931</v>
       </c>
       <c r="K2" t="n">
+        <v>290673.0489695931</v>
+      </c>
+      <c r="L2" t="n">
         <v>290673.0489695932</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>290673.0489695931</v>
       </c>
-      <c r="M2" t="n">
-        <v>290673.0489695932</v>
-      </c>
       <c r="N2" t="n">
-        <v>290673.0489695931</v>
+        <v>290673.0489695933</v>
       </c>
       <c r="O2" t="n">
         <v>290673.0489695932</v>
       </c>
       <c r="P2" t="n">
-        <v>290673.048969593</v>
+        <v>290673.0489695931</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33746.94210533852</v>
+        <v>22175.99473096512</v>
       </c>
       <c r="C3" t="n">
-        <v>181900.7422242496</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>106632.2186106973</v>
       </c>
       <c r="E3" t="n">
-        <v>362548.198952821</v>
+        <v>729216.4757794442</v>
       </c>
       <c r="F3" t="n">
-        <v>152684.7977298097</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>98422.44827819215</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>101448.6930216379</v>
+        <v>86671.7721858049</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>65718.55375189539</v>
+        <v>135097.2156759868</v>
       </c>
       <c r="N3" t="n">
-        <v>38674.28148686206</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25107.33513529596</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59404.38555035135</v>
+        <v>61244.83920534592</v>
       </c>
       <c r="C4" t="n">
-        <v>26965.82850806996</v>
+        <v>61244.83920534592</v>
       </c>
       <c r="D4" t="n">
-        <v>22912.19497931681</v>
+        <v>41182.25970000193</v>
       </c>
       <c r="E4" t="n">
-        <v>10965.07562050203</v>
+        <v>13464.32877611455</v>
       </c>
       <c r="F4" t="n">
-        <v>12482.28691195991</v>
+        <v>13464.32877611457</v>
       </c>
       <c r="G4" t="n">
-        <v>13332.55632898241</v>
+        <v>13464.32877611456</v>
       </c>
       <c r="H4" t="n">
-        <v>13332.55632898241</v>
+        <v>13464.32877611455</v>
       </c>
       <c r="I4" t="n">
         <v>14971.45584523219</v>
       </c>
       <c r="J4" t="n">
-        <v>14971.45584523218</v>
+        <v>14971.45584523217</v>
       </c>
       <c r="K4" t="n">
         <v>14971.45584523218</v>
@@ -26456,7 +26456,7 @@
         <v>14971.45584523219</v>
       </c>
       <c r="O4" t="n">
-        <v>14971.45584523218</v>
+        <v>14971.45584523219</v>
       </c>
       <c r="P4" t="n">
         <v>14971.45584523218</v>
@@ -26469,34 +26469,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34391.06348367693</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="C5" t="n">
-        <v>38745.80483114667</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="D5" t="n">
-        <v>39312.96135688073</v>
+        <v>36843.61258005621</v>
       </c>
       <c r="E5" t="n">
-        <v>29420.2032042662</v>
+        <v>51571.48185587224</v>
       </c>
       <c r="F5" t="n">
-        <v>41983.78525919239</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="G5" t="n">
-        <v>50284.98451902744</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="H5" t="n">
-        <v>50284.98451902743</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="I5" t="n">
         <v>59310.17243984473</v>
       </c>
       <c r="J5" t="n">
+        <v>59310.17243984471</v>
+      </c>
+      <c r="K5" t="n">
         <v>59310.17243984472</v>
-      </c>
-      <c r="K5" t="n">
-        <v>59310.17243984473</v>
       </c>
       <c r="L5" t="n">
         <v>59310.17243984472</v>
@@ -26508,10 +26508,10 @@
         <v>59310.17243984473</v>
       </c>
       <c r="O5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984472</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984472</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23321.6353958992</v>
+        <v>-28971.01097671347</v>
       </c>
       <c r="C6" t="n">
-        <v>-136779.0088042361</v>
+        <v>-6795.016245748298</v>
       </c>
       <c r="D6" t="n">
-        <v>27166.48892353696</v>
+        <v>-91479.63754572641</v>
       </c>
       <c r="E6" t="n">
-        <v>-209165.2256403325</v>
+        <v>-535231.0883178486</v>
       </c>
       <c r="F6" t="n">
-        <v>27500.96404436084</v>
+        <v>193985.3874615959</v>
       </c>
       <c r="G6" t="n">
-        <v>99381.24248301555</v>
+        <v>193985.3874615956</v>
       </c>
       <c r="H6" t="n">
-        <v>197803.6907612077</v>
+        <v>193985.3874615956</v>
       </c>
       <c r="I6" t="n">
-        <v>114942.7276628784</v>
+        <v>124492.1857768197</v>
       </c>
       <c r="J6" t="n">
-        <v>216391.4206845162</v>
+        <v>211163.9579626246</v>
       </c>
       <c r="K6" t="n">
-        <v>216391.4206845163</v>
+        <v>211163.9579626245</v>
       </c>
       <c r="L6" t="n">
-        <v>216391.4206845162</v>
+        <v>211163.9579626246</v>
       </c>
       <c r="M6" t="n">
-        <v>150672.8669326209</v>
+        <v>76066.74228663776</v>
       </c>
       <c r="N6" t="n">
-        <v>177717.1391976541</v>
+        <v>211163.9579626248</v>
       </c>
       <c r="O6" t="n">
-        <v>191284.0855492204</v>
+        <v>211163.9579626246</v>
       </c>
       <c r="P6" t="n">
-        <v>216391.4206845161</v>
+        <v>211163.9579626245</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>234.7800381259942</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
-        <v>260.7963925174648</v>
+        <v>147.5235128466154</v>
       </c>
       <c r="E3" t="n">
-        <v>614.0550137694783</v>
+        <v>853.7106645376844</v>
       </c>
       <c r="F3" t="n">
-        <v>749.98095649761</v>
+        <v>853.710664537684</v>
       </c>
       <c r="G3" t="n">
-        <v>839.7919936870175</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="H3" t="n">
-        <v>839.7919936870175</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175393</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>263.7138800015061</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="F4" t="n">
-        <v>421.6151382819818</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="G4" t="n">
-        <v>525.9460371159614</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="H4" t="n">
-        <v>525.9460371159613</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="I4" t="n">
         <v>640.5848321000391</v>
       </c>
       <c r="J4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="K4" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="K4" t="n">
-        <v>640.5848321000391</v>
       </c>
       <c r="L4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N4" t="n">
         <v>640.5848321000391</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>199.7587774068689</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>124.5101301598261</v>
       </c>
       <c r="E3" t="n">
-        <v>353.2586212520134</v>
+        <v>706.1871516910689</v>
       </c>
       <c r="F3" t="n">
-        <v>135.9259427281318</v>
+        <v>-1.450799163254217e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>89.81103718940744</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>94.27289843052188</v>
+        <v>80.35422757985521</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>263.7138800015061</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="F4" t="n">
-        <v>157.9012582804756</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>104.3308988339797</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.6387949840778</v>
+        <v>98.46987537387599</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>263.7138800015064</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="N4" t="n">
-        <v>157.9012582804756</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>104.3308988339793</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>263.7138800015061</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="N4" t="n">
-        <v>157.9012582804756</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>104.3308988339797</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870377</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779989</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833408</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227321</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174387</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894682</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179684</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938412</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H5" t="n">
-        <v>9.666094735508892</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I5" t="n">
-        <v>36.38736651196942</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J5" t="n">
-        <v>80.10718496842655</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K5" t="n">
-        <v>120.0599046221887</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068054</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M5" t="n">
-        <v>165.7299311340341</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N5" t="n">
-        <v>168.4116146850913</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559843</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P5" t="n">
-        <v>135.7252782213693</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.9240315263455</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>59.28844852233964</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S5" t="n">
-        <v>21.50773917103957</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342871</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H6" t="n">
-        <v>4.877223056164522</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I6" t="n">
-        <v>17.38701225744391</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J6" t="n">
-        <v>47.71129057803813</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K6" t="n">
-        <v>81.54619494042197</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L6" t="n">
-        <v>109.6489225228995</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M6" t="n">
-        <v>127.9551207786668</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O6" t="n">
-        <v>120.1520068700076</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P6" t="n">
-        <v>96.43257830122204</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.4626248077258</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R6" t="n">
-        <v>31.35420961992052</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S6" t="n">
-        <v>9.380126994939479</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T6" t="n">
-        <v>2.035498632431968</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423373839243596</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H7" t="n">
-        <v>3.764178316183975</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I7" t="n">
-        <v>12.73200600198015</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J7" t="n">
-        <v>29.93253043452224</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K7" t="n">
-        <v>49.18834241393778</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L7" t="n">
-        <v>62.94414333627064</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797568</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N7" t="n">
-        <v>64.78774396352233</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O7" t="n">
-        <v>59.84196775054031</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P7" t="n">
-        <v>51.20514142997091</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702513</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R7" t="n">
-        <v>19.03642735362569</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090667</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T7" t="n">
-        <v>1.808960949495364</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.048427708612923</v>
+        <v>0.5930593481270966</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7372102708321</v>
+        <v>6.073669049006631</v>
       </c>
       <c r="I8" t="n">
-        <v>40.41950923629976</v>
+        <v>22.86392051866991</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388616</v>
+        <v>50.33517084810222</v>
       </c>
       <c r="K8" t="n">
-        <v>133.3639361394712</v>
+        <v>75.43937305432223</v>
       </c>
       <c r="L8" t="n">
-        <v>165.449755626934</v>
+        <v>93.58921307956689</v>
       </c>
       <c r="M8" t="n">
-        <v>184.0947318899791</v>
+        <v>104.1360322618221</v>
       </c>
       <c r="N8" t="n">
-        <v>187.0735771170756</v>
+        <v>105.8210621346883</v>
       </c>
       <c r="O8" t="n">
-        <v>176.6482740895558</v>
+        <v>99.92382824174943</v>
       </c>
       <c r="P8" t="n">
-        <v>150.7652150331742</v>
+        <v>85.28267558486172</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.2183977184739</v>
+        <v>64.04373768006005</v>
       </c>
       <c r="R8" t="n">
-        <v>65.85829705115658</v>
+        <v>37.25376427678876</v>
       </c>
       <c r="S8" t="n">
-        <v>23.89104641001701</v>
+        <v>13.51433989544623</v>
       </c>
       <c r="T8" t="n">
-        <v>4.589492294453073</v>
+        <v>2.596117296426367</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.04744474785016772</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.560958278245113</v>
+        <v>0.3173147257455501</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051487</v>
+        <v>3.064592219700445</v>
       </c>
       <c r="I9" t="n">
-        <v>19.31369510624622</v>
+        <v>10.92509033816916</v>
       </c>
       <c r="J9" t="n">
-        <v>52.99825557753501</v>
+        <v>29.97928292668814</v>
       </c>
       <c r="K9" t="n">
-        <v>90.58246021995758</v>
+        <v>51.23936955164</v>
       </c>
       <c r="L9" t="n">
-        <v>121.799296335633</v>
+        <v>68.89765569312921</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>80.40031450140539</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>82.52827158765517</v>
       </c>
       <c r="O9" t="n">
-        <v>133.4662443858011</v>
+        <v>75.49724529613533</v>
       </c>
       <c r="P9" t="n">
-        <v>107.1184277115602</v>
+        <v>60.59319530486738</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.60583214932356</v>
+        <v>40.50494639516882</v>
       </c>
       <c r="R9" t="n">
-        <v>34.82862011770975</v>
+        <v>19.70134762128951</v>
       </c>
       <c r="S9" t="n">
-        <v>10.4195539840704</v>
+        <v>5.893981857598263</v>
       </c>
       <c r="T9" t="n">
-        <v>2.261055516259907</v>
+        <v>1.27900102175509</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.02087596879904936</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.2660260067725851</v>
       </c>
       <c r="H10" t="n">
-        <v>4.181292981673455</v>
+        <v>2.365213042032622</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14286010570121</v>
+        <v>8.000127549124654</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062825</v>
+        <v>18.80803867882177</v>
       </c>
       <c r="K10" t="n">
-        <v>54.63898190775737</v>
+        <v>30.90738515048761</v>
       </c>
       <c r="L10" t="n">
-        <v>69.91908529886263</v>
+        <v>39.55081195235326</v>
       </c>
       <c r="M10" t="n">
-        <v>73.71987206850237</v>
+        <v>41.70078577072441</v>
       </c>
       <c r="N10" t="n">
-        <v>71.96697828272931</v>
+        <v>40.70923429093571</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707449</v>
+        <v>37.60156684818323</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298935</v>
+        <v>32.17463631002246</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013718</v>
+        <v>22.27605043983893</v>
       </c>
       <c r="R10" t="n">
-        <v>21.14588454739968</v>
+        <v>11.96149663179278</v>
       </c>
       <c r="S10" t="n">
-        <v>8.195847286163604</v>
+        <v>4.636107772573141</v>
       </c>
       <c r="T10" t="n">
-        <v>2.009414827593581</v>
+        <v>1.136656574391954</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.01451050946032284</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.468562869425036</v>
+        <v>3.432002671508276</v>
       </c>
       <c r="H11" t="n">
-        <v>25.28116948649916</v>
+        <v>35.14799735958415</v>
       </c>
       <c r="I11" t="n">
-        <v>95.1692700235088</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J11" t="n">
-        <v>209.5161878388634</v>
+        <v>291.2869367409258</v>
       </c>
       <c r="K11" t="n">
-        <v>314.0104541016252</v>
+        <v>436.5636098258713</v>
       </c>
       <c r="L11" t="n">
-        <v>389.5577350167918</v>
+        <v>541.5957615840427</v>
       </c>
       <c r="M11" t="n">
-        <v>433.4580399459292</v>
+        <v>602.6296390934781</v>
       </c>
       <c r="N11" t="n">
-        <v>440.4718441986831</v>
+        <v>612.380816683901</v>
       </c>
       <c r="O11" t="n">
-        <v>415.9250721658379</v>
+        <v>578.2538401190906</v>
       </c>
       <c r="P11" t="n">
-        <v>354.9824263269073</v>
+        <v>493.5262741662299</v>
       </c>
       <c r="Q11" t="n">
-        <v>266.5770185656231</v>
+        <v>370.6176784928396</v>
       </c>
       <c r="R11" t="n">
-        <v>155.0658623465206</v>
+        <v>215.585537814132</v>
       </c>
       <c r="S11" t="n">
-        <v>56.25237638702307</v>
+        <v>78.20676087699492</v>
       </c>
       <c r="T11" t="n">
-        <v>10.8061339609081</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.32079757678718</v>
+        <v>1.836283316175397</v>
       </c>
       <c r="H12" t="n">
-        <v>12.75612396528671</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I12" t="n">
-        <v>45.47482884990948</v>
+        <v>63.22291242095116</v>
       </c>
       <c r="J12" t="n">
-        <v>124.7864061472484</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2798437919895</v>
+        <v>296.5194861913578</v>
       </c>
       <c r="L12" t="n">
-        <v>286.7810703458304</v>
+        <v>398.7070419616799</v>
       </c>
       <c r="M12" t="n">
-        <v>334.6599825043656</v>
+        <v>465.2723121730379</v>
       </c>
       <c r="N12" t="n">
-        <v>343.517436429399</v>
+        <v>477.5866858152844</v>
       </c>
       <c r="O12" t="n">
-        <v>314.2513427542725</v>
+        <v>436.8985133884506</v>
       </c>
       <c r="P12" t="n">
-        <v>252.2144074480712</v>
+        <v>350.6495746475633</v>
       </c>
       <c r="Q12" t="n">
-        <v>168.5986520825179</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R12" t="n">
-        <v>82.00530919736545</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S12" t="n">
-        <v>24.53323569163905</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T12" t="n">
-        <v>5.323741109944814</v>
+        <v>7.401510384057846</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.107312319912174</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H13" t="n">
-        <v>9.845013171582789</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I13" t="n">
-        <v>33.29990140244975</v>
+        <v>46.29630948017476</v>
       </c>
       <c r="J13" t="n">
-        <v>78.28698101779068</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K13" t="n">
-        <v>128.6495586225234</v>
+        <v>178.8593818490427</v>
       </c>
       <c r="L13" t="n">
-        <v>164.6271425440336</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M13" t="n">
-        <v>173.576239384051</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N13" t="n">
-        <v>169.4489843734694</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O13" t="n">
-        <v>156.513563181768</v>
+        <v>217.5982526595397</v>
       </c>
       <c r="P13" t="n">
-        <v>133.9243918555596</v>
+        <v>186.1928964099893</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.72230707919121</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R13" t="n">
-        <v>49.78878849350555</v>
+        <v>69.22054011153091</v>
       </c>
       <c r="S13" t="n">
-        <v>19.29743379337851</v>
+        <v>26.8289072773564</v>
       </c>
       <c r="T13" t="n">
-        <v>4.731243548715651</v>
+        <v>6.577770693978877</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.08397154077419855</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.014998820090892</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H14" t="n">
-        <v>30.87735666625586</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I14" t="n">
-        <v>116.2357420115542</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J14" t="n">
-        <v>255.8942561066896</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K14" t="n">
-        <v>383.5191561611372</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L14" t="n">
-        <v>475.7894263014939</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M14" t="n">
-        <v>529.4074115682853</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N14" t="n">
-        <v>537.9737769658685</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O14" t="n">
-        <v>507.9933824485897</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P14" t="n">
-        <v>433.5605990775957</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q14" t="n">
-        <v>325.5859538330906</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R14" t="n">
-        <v>189.3909196325347</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S14" t="n">
-        <v>68.70428561282128</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T14" t="n">
-        <v>13.19815733494789</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2411999056072713</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.613166585674105</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H15" t="n">
-        <v>15.57979307743149</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I15" t="n">
-        <v>55.54104253307773</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J15" t="n">
-        <v>152.4088658859908</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K15" t="n">
-        <v>260.4910271261558</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L15" t="n">
-        <v>350.2623325605112</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M15" t="n">
-        <v>408.7396212911974</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N15" t="n">
-        <v>419.5577428240734</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O15" t="n">
-        <v>383.8133674257156</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P15" t="n">
-        <v>308.0440649433297</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q15" t="n">
-        <v>205.919299602891</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S15" t="n">
-        <v>29.96386179969223</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T15" t="n">
-        <v>6.502193386993428</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1061293806364543</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.352424675651428</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H16" t="n">
-        <v>12.02428484351907</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I16" t="n">
-        <v>40.67109842777204</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J16" t="n">
-        <v>95.61642456855594</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K16" t="n">
-        <v>157.1271577711386</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L16" t="n">
-        <v>201.0686649600314</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M16" t="n">
-        <v>211.9987152932506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N16" t="n">
-        <v>206.9578596840045</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O16" t="n">
-        <v>191.15908051844</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P16" t="n">
-        <v>163.5696171351508</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.2471244311391</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R16" t="n">
-        <v>60.80993132519963</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S16" t="n">
-        <v>23.56907366567078</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T16" t="n">
-        <v>5.778541795965189</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07376861867189614</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.376048215827203</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H17" t="n">
-        <v>34.57495379034035</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I17" t="n">
-        <v>130.1550988406784</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J17" t="n">
-        <v>286.5378722580643</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K17" t="n">
-        <v>429.44599323403</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L17" t="n">
-        <v>532.7657288191518</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M17" t="n">
-        <v>592.8045262773688</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N17" t="n">
-        <v>602.3967232705879</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O17" t="n">
-        <v>568.8261438244562</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P17" t="n">
-        <v>485.479953496222</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q17" t="n">
-        <v>364.5752267669101</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R17" t="n">
-        <v>212.0706887374558</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S17" t="n">
-        <v>76.93169871816247</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T17" t="n">
-        <v>14.77865106478359</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2700838572661762</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.806345043024906</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H18" t="n">
-        <v>17.44549028395106</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I18" t="n">
-        <v>62.19214292870838</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J18" t="n">
-        <v>170.6599937359627</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K18" t="n">
-        <v>291.6851116186314</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L18" t="n">
-        <v>392.2066287497717</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M18" t="n">
-        <v>457.6866365594245</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N18" t="n">
-        <v>469.8002399400609</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O18" t="n">
-        <v>429.7754366182984</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P18" t="n">
-        <v>344.9326775579752</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q18" t="n">
-        <v>230.5783602289336</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R18" t="n">
-        <v>112.1518439871078</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S18" t="n">
-        <v>33.55206691758978</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T18" t="n">
-        <v>7.280838133946875</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1188384896726912</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.514379005009376</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H19" t="n">
-        <v>13.46420606271973</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I19" t="n">
-        <v>45.54150680519106</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J19" t="n">
-        <v>107.0665956541629</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K19" t="n">
-        <v>175.943306218362</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L19" t="n">
-        <v>225.146856799303</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M19" t="n">
-        <v>237.3857925761515</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N19" t="n">
-        <v>231.7412890120258</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O19" t="n">
-        <v>214.0505888171434</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P19" t="n">
-        <v>183.157257114952</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.8085910467396</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R19" t="n">
-        <v>68.091986897967</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S19" t="n">
-        <v>26.39149593275429</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T19" t="n">
-        <v>6.470528475949148</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08260249118232967</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.376048215827203</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H20" t="n">
-        <v>34.57495379034035</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I20" t="n">
-        <v>130.1550988406784</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J20" t="n">
-        <v>286.5378722580643</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K20" t="n">
-        <v>429.44599323403</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L20" t="n">
-        <v>532.7657288191518</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M20" t="n">
-        <v>592.8045262773688</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N20" t="n">
-        <v>602.3967232705879</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O20" t="n">
-        <v>568.8261438244562</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P20" t="n">
-        <v>485.479953496222</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q20" t="n">
-        <v>364.5752267669101</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R20" t="n">
-        <v>212.0706887374558</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S20" t="n">
-        <v>76.93169871816247</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T20" t="n">
-        <v>14.77865106478359</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2700838572661762</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.806345043024906</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H21" t="n">
-        <v>17.44549028395106</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I21" t="n">
-        <v>62.19214292870838</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J21" t="n">
-        <v>170.6599937359627</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K21" t="n">
-        <v>291.6851116186314</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L21" t="n">
-        <v>392.2066287497717</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M21" t="n">
-        <v>457.6866365594245</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N21" t="n">
-        <v>469.8002399400609</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O21" t="n">
-        <v>429.7754366182984</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P21" t="n">
-        <v>344.9326775579752</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q21" t="n">
-        <v>230.5783602289336</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R21" t="n">
-        <v>112.1518439871078</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S21" t="n">
-        <v>33.55206691758978</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T21" t="n">
-        <v>7.280838133946875</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1188384896726912</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.514379005009376</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H22" t="n">
-        <v>13.46420606271973</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I22" t="n">
-        <v>45.54150680519106</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J22" t="n">
-        <v>107.0665956541629</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K22" t="n">
-        <v>175.943306218362</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L22" t="n">
-        <v>225.146856799303</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M22" t="n">
-        <v>237.3857925761515</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N22" t="n">
-        <v>231.7412890120258</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O22" t="n">
-        <v>214.0505888171434</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P22" t="n">
-        <v>183.157257114952</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.8085910467396</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R22" t="n">
-        <v>68.091986897967</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S22" t="n">
-        <v>26.39149593275429</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T22" t="n">
-        <v>6.470528475949148</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08260249118232967</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34374,7 +34374,7 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L44" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767377</v>
       </c>
       <c r="M44" t="n">
         <v>659.3512441730005</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>28.47028331217709</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K11" t="n">
-        <v>93.92060305664467</v>
+        <v>216.4737587808907</v>
       </c>
       <c r="L11" t="n">
-        <v>153.7913200468045</v>
+        <v>305.8293466140555</v>
       </c>
       <c r="M11" t="n">
-        <v>203.1118067186565</v>
+        <v>372.2834058662054</v>
       </c>
       <c r="N11" t="n">
-        <v>211.0587806020922</v>
+        <v>382.9677530873101</v>
       </c>
       <c r="O11" t="n">
-        <v>185.8268607441512</v>
+        <v>348.1556286974038</v>
       </c>
       <c r="P11" t="n">
-        <v>123.7494305716377</v>
+        <v>262.2932784109603</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.27132869117358</v>
+        <v>148.3119886183901</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>46.65087734093956</v>
       </c>
       <c r="K12" t="n">
-        <v>75.43840481763047</v>
+        <v>158.6780472169988</v>
       </c>
       <c r="L12" t="n">
-        <v>148.2266905659562</v>
+        <v>260.1526621818057</v>
       </c>
       <c r="M12" t="n">
-        <v>192.5259485823473</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="N12" t="n">
-        <v>212.1757243460657</v>
+        <v>519.711223263272</v>
       </c>
       <c r="O12" t="n">
-        <v>171.6550983098281</v>
+        <v>294.3022689440061</v>
       </c>
       <c r="P12" t="n">
-        <v>118.240000033741</v>
+        <v>216.675167233233</v>
       </c>
       <c r="Q12" t="n">
-        <v>125.9385470877688</v>
+        <v>94.41818044892912</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>13.85280893410653</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>15.48193198348412</v>
       </c>
       <c r="K13" t="n">
-        <v>106.3800667966406</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L13" t="n">
-        <v>192.2171678043497</v>
+        <v>256.4684548971898</v>
       </c>
       <c r="M13" t="n">
-        <v>213.1601163458916</v>
+        <v>280.9040898900912</v>
       </c>
       <c r="N13" t="n">
-        <v>213.581156752698</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O13" t="n">
-        <v>181.0986910958077</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P13" t="n">
-        <v>131.2029511204531</v>
+        <v>183.4714556748828</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.560263827496826</v>
+        <v>42.74826709349595</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>74.84835158000331</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K14" t="n">
-        <v>163.4293051161566</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L14" t="n">
-        <v>240.0230113315067</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M14" t="n">
-        <v>299.0611783410126</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N14" t="n">
-        <v>308.5607133692776</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O14" t="n">
-        <v>277.895171026903</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P14" t="n">
-        <v>202.3276033223262</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q14" t="n">
-        <v>103.2802639586411</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>25.57123921932407</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K15" t="n">
-        <v>122.6495881517968</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L15" t="n">
-        <v>211.707952780637</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M15" t="n">
-        <v>266.6055873691791</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="N15" t="n">
-        <v>288.2160307407401</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O15" t="n">
-        <v>241.2171229812711</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P15" t="n">
-        <v>421.6151382819818</v>
+        <v>264.0503814241462</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.84293852089688</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>13.85280893410649</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.257244451883167</v>
+        <v>15.48193198348407</v>
       </c>
       <c r="K16" t="n">
-        <v>134.8576659452557</v>
+        <v>156.5898900231597</v>
       </c>
       <c r="L16" t="n">
-        <v>228.6586902203475</v>
+        <v>256.4684548971896</v>
       </c>
       <c r="M16" t="n">
-        <v>251.5825922550912</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N16" t="n">
-        <v>251.0900320632331</v>
+        <v>279.7143300212424</v>
       </c>
       <c r="O16" t="n">
-        <v>215.7442084324797</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P16" t="n">
-        <v>160.8481764000443</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.08508117944473</v>
+        <v>42.7482670934959</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>105.4919677313781</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K17" t="n">
-        <v>209.3561421890494</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L17" t="n">
-        <v>296.9993138491646</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M17" t="n">
-        <v>362.4582930500961</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N17" t="n">
-        <v>372.983659673997</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O17" t="n">
-        <v>338.7279324027694</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P17" t="n">
-        <v>254.2469577409524</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q17" t="n">
-        <v>142.2695368924606</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>169.9134024097048</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K18" t="n">
-        <v>416.2229731957202</v>
+        <v>214.9526521472061</v>
       </c>
       <c r="L18" t="n">
-        <v>253.6522489698975</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M18" t="n">
-        <v>315.5526026374062</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N18" t="n">
-        <v>338.4585278567275</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O18" t="n">
-        <v>287.179192173854</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P18" t="n">
-        <v>210.9582701436449</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.59658614291206</v>
+        <v>304.4954681847781</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>13.85280893410651</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>13.70741553749008</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K19" t="n">
-        <v>153.6738143924791</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L19" t="n">
-        <v>252.7368820596191</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M19" t="n">
-        <v>276.969669537992</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N19" t="n">
-        <v>275.8734613912544</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O19" t="n">
-        <v>238.6357167311831</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P19" t="n">
-        <v>180.4358163798455</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.64654779504525</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>105.4919677313781</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K20" t="n">
-        <v>209.3561421890494</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L20" t="n">
-        <v>296.9993138491646</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M20" t="n">
-        <v>362.4582930500961</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N20" t="n">
-        <v>372.983659673997</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O20" t="n">
-        <v>338.7279324027694</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P20" t="n">
-        <v>254.2469577409524</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q20" t="n">
-        <v>142.2695368924606</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>169.9134024097048</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K21" t="n">
-        <v>416.2229731957197</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L21" t="n">
-        <v>253.6522489698975</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M21" t="n">
-        <v>315.5526026374062</v>
+        <v>519.7112232632722</v>
       </c>
       <c r="N21" t="n">
-        <v>338.4585278567275</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="O21" t="n">
-        <v>287.179192173854</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P21" t="n">
-        <v>210.9582701436449</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.59658614291206</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>13.85280893410651</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>13.70741553749008</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K22" t="n">
-        <v>153.6738143924791</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L22" t="n">
-        <v>252.7368820596191</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M22" t="n">
-        <v>276.969669537992</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N22" t="n">
-        <v>275.8734613912544</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O22" t="n">
-        <v>238.6357167311831</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P22" t="n">
-        <v>180.4358163798455</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.64654779504525</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>63.93583437922504</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K24" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L24" t="n">
         <v>297.6803606378502</v>
@@ -36454,10 +36454,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P24" t="n">
-        <v>568.1422977634695</v>
+        <v>514.7099619750476</v>
       </c>
       <c r="Q24" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>189.0712562313263</v>
+        <v>117.9333660065822</v>
       </c>
       <c r="K27" t="n">
-        <v>355.3309544215491</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
@@ -36697,7 +36697,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R27" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K30" t="n">
-        <v>451.0527332560634</v>
+        <v>187.5431097317916</v>
       </c>
       <c r="L30" t="n">
         <v>297.6803606378502</v>
@@ -36928,10 +36928,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P30" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q30" t="n">
-        <v>255.4201198419598</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R32" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093987</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K33" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M33" t="n">
-        <v>366.9313322820406</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="N33" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O33" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P33" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q33" t="n">
         <v>116.4807223308546</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378502</v>
@@ -37402,13 +37402,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P36" t="n">
-        <v>490.1260733652767</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R36" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>379.9148430313208</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L39" t="n">
-        <v>297.6803606378502</v>
+        <v>466.4238188159154</v>
       </c>
       <c r="M39" t="n">
         <v>366.9313322820406</v>
@@ -37645,7 +37645,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>355.3309544215487</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378502</v>
@@ -37879,7 +37879,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q42" t="n">
-        <v>326.5580100667037</v>
+        <v>230.8362312321895</v>
       </c>
       <c r="R42" t="n">
         <v>24.58388860977094</v>
@@ -38022,7 +38022,7 @@
         <v>257.5646495407338</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067504</v>
       </c>
       <c r="M44" t="n">
         <v>429.0050109457278</v>
@@ -38098,7 +38098,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>355.3309544215487</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378502</v>
@@ -38113,13 +38113,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P45" t="n">
-        <v>249.6795291235323</v>
+        <v>388.6189266346379</v>
       </c>
       <c r="Q45" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R45" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
